--- a/office_data.xlsx
+++ b/office_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Class\R_class_intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4A5973-8827-4025-90ED-6051D546DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B7103-355A-4BB5-A388-4A5A2251BD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9055E512-D45B-4895-820D-B58CCA49DAEF}"/>
   </bookViews>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>district</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gbd</t>
   </si>
   <si>
@@ -98,6 +94,10 @@
   </si>
   <si>
     <t>cbd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -484,31 +484,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>0</v>
